--- a/testdatas/commandinfo.xlsx
+++ b/testdatas/commandinfo.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="命令执行" sheetId="1" r:id="rId1"/>
     <sheet name="公共模板" sheetId="3" r:id="rId2"/>
     <sheet name="添加模板类型" sheetId="2" r:id="rId3"/>
     <sheet name="管理模板类型" sheetId="4" r:id="rId4"/>
+    <sheet name="添加脚本类型名称" sheetId="5" r:id="rId5"/>
+    <sheet name="管理脚本类型" sheetId="6" r:id="rId6"/>
+    <sheet name="公共脚本" sheetId="7" r:id="rId7"/>
+    <sheet name="任务管理添加任务" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="141">
   <si>
     <t>case_id</t>
   </si>
@@ -31,28 +35,22 @@
     <t>expect</t>
   </si>
   <si>
-    <t>xpath</t>
+    <t>text_location</t>
   </si>
   <si>
     <t>execute</t>
   </si>
   <si>
-    <t>testresult</t>
-  </si>
-  <si>
     <t>add-clusterinfo-001</t>
   </si>
   <si>
-    <t>全部字段都正常填写，下拉选择保持默认</t>
-  </si>
-  <si>
-    <t>{"target":"","target2":""}</t>
-  </si>
-  <si>
-    <t>{"errmsg":"请选择目标集群"}</t>
-  </si>
-  <si>
-    <t>{"type":"xpath","xpath":"//div[@role='alert']"}</t>
+    <t>全部字段都正常填写</t>
+  </si>
+  <si>
+    <t>{"colony":"内部f060975","host":"KJ2020100610006","template":"新的一轮测试开始","states":"False","start":"False","section":"True"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>True</t>
@@ -61,16 +59,55 @@
     <t>add-clusterinfo-002</t>
   </si>
   <si>
-    <t>False</t>
+    <t>目标集群为空</t>
+  </si>
+  <si>
+    <t>{"colony":"","host":"","template":"","states":"","start":"","section":""}</t>
+  </si>
+  <si>
+    <t>{"msg":"请先选择目标集群"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='请先选择目标集群']"}</t>
   </si>
   <si>
     <t>add-clusterinfo-003</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>text_location</t>
+    <t>执行主机不勾选确定</t>
+  </si>
+  <si>
+    <t>{"colony":"内部f060975","host":"","template":"","states":"","start":"","section":""}</t>
+  </si>
+  <si>
+    <t>{"msg":"至少选择一条数据！"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='至少选择一条数据！']"}</t>
+  </si>
+  <si>
+    <t>add-clusterinfo-004</t>
+  </si>
+  <si>
+    <t>执行模板不勾选确定</t>
+  </si>
+  <si>
+    <t>{"colony":"内部f060975","host":"KJ2020100610006","template":"","states":"False","start":"","section":""}</t>
+  </si>
+  <si>
+    <t>add-clusterinfo-005</t>
+  </si>
+  <si>
+    <t>所有为空执行开始</t>
+  </si>
+  <si>
+    <t>{"colony":"","host":"","template":"","states":"","start":"False","section":""}</t>
+  </si>
+  <si>
+    <t>{"msg1":"请选择目标集群","msg2":"请选择执行主机","msg3":"请选择执行命令"}</t>
+  </si>
+  <si>
+    <t>{"xpath1":"//div[text()='请选择目标集群']","xpath2":"//div[text()='请选择执行主机']","xpath3":"//div[text()='请选择执行命令']"}</t>
   </si>
   <si>
     <t>edit-clusterinfo-001</t>
@@ -79,7 +116,7 @@
     <t>全部字段正常格式创建</t>
   </si>
   <si>
-    <t>{"type":"测试","name":"查看内","content1":"yes","remarks":"测试"}</t>
+    <t>{"type":"测试","name":"查看内存","content1":"yes","remarks":"测试"}</t>
   </si>
   <si>
     <t>{"msg":"新建模板成功"}</t>
@@ -91,6 +128,21 @@
     <t>edit-clusterinfo-002</t>
   </si>
   <si>
+    <t>模板类型为空</t>
+  </si>
+  <si>
+    <t>{"type":"","name":"查看内存","content1":"yes","remarks":"测试"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请选择模板类型"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请选择模板类型']"}</t>
+  </si>
+  <si>
+    <t>edit-clusterinfo-003</t>
+  </si>
+  <si>
     <t>模板名称为空</t>
   </si>
   <si>
@@ -100,46 +152,43 @@
     <t>{"msg":"请输入模板名称"}</t>
   </si>
   <si>
-    <t>{"xpath":"//span[text()='请输入模板名称']"}</t>
-  </si>
-  <si>
-    <t>edit-clusterinfo-003</t>
+    <t>{"xpath":"//div[text()='请输入模板名称']"}</t>
+  </si>
+  <si>
+    <t>edit-clusterinfo-004</t>
   </si>
   <si>
     <t>模板内容为空</t>
   </si>
   <si>
-    <t>{"type":"测试","name":"查看内存","content1":"no","remarks":"测试"}</t>
+    <t>{"type":"测试","name":"查看内存","content1":"","remarks":"测试"}</t>
   </si>
   <si>
     <t>{"msg":"请输入模板内容"}</t>
   </si>
   <si>
-    <t>{"xpath":"//span[text()='请输入模板内容']"}</t>
-  </si>
-  <si>
-    <t>edit-clusterinfo-004</t>
+    <t>{"xpath":"//div[text()='请输入模板内容']"}</t>
+  </si>
+  <si>
+    <t>edit-clusterinfo-005</t>
+  </si>
+  <si>
+    <t>模板名称重名</t>
+  </si>
+  <si>
+    <t>{"msg":"公共模板名已存在"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='公共模板名已存在']"}</t>
+  </si>
+  <si>
+    <t>edit-clusterinfo-006</t>
   </si>
   <si>
     <t>备注为空</t>
   </si>
   <si>
-    <t>{"type":"测试","name":"查看内存","content1":"yes","remarks":""}</t>
-  </si>
-  <si>
-    <t>edit-clusterinfo-005</t>
-  </si>
-  <si>
-    <t>模板类型为空</t>
-  </si>
-  <si>
-    <t>{"type":"","name":"查看内存","content2":"yes","remarks":"测试"}</t>
-  </si>
-  <si>
-    <t>{"msg":"请选择模板类型"}</t>
-  </si>
-  <si>
-    <t>{"xpath":"//span[text()='请选择模板类型']"}</t>
+    <t>{"type":"测试","name":"测试","content1":"yes","remarks":""}</t>
   </si>
   <si>
     <t>添加类型</t>
@@ -181,7 +230,7 @@
     <t>正确修改</t>
   </si>
   <si>
-    <t>{"test":"ssssssaaa-sffsdff"}</t>
+    <t>{"test":"测试-223s22"}</t>
   </si>
   <si>
     <t>{"msg":"编辑成功"}</t>
@@ -205,7 +254,196 @@
     <t>不修改保存</t>
   </si>
   <si>
-    <t>{"test":"修改"}</t>
+    <t>正确格式添加脚本类型</t>
+  </si>
+  <si>
+    <t>{"text":"测试","judge":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"添加成功"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='添加成功']"}</t>
+  </si>
+  <si>
+    <t>添加脚本名称为空</t>
+  </si>
+  <si>
+    <t>{"text":"","judge":"False"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入名称"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='请输入名称']"}</t>
+  </si>
+  <si>
+    <t>添加脚本名称重名</t>
+  </si>
+  <si>
+    <t>{"text":"测试","judge":"False"}</t>
+  </si>
+  <si>
+    <t>{"text":"测试-223s0222"}</t>
+  </si>
+  <si>
+    <t>脚本类型为空</t>
+  </si>
+  <si>
+    <t>{"text":""}</t>
+  </si>
+  <si>
+    <t>正确格式添加脚本</t>
+  </si>
+  <si>
+    <t>{"type":"测试","choice":"本地选择","edition":"v-5.1.1","describe":"测试"}</t>
+  </si>
+  <si>
+    <t>{"msg":"新建脚本成功"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='新建脚本成功']"}</t>
+  </si>
+  <si>
+    <t>{"type":"","choice":"本地选择","edition":"v-5.1.1","describe":"测试"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请选择脚本类型"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请选择脚本类型']"}</t>
+  </si>
+  <si>
+    <t>脚本名称为空</t>
+  </si>
+  <si>
+    <t>{"type":"测试","choice":"","edition":"v-5.1.1","describe":"测试"}</t>
+  </si>
+  <si>
+    <t>{"msg1":"请选择脚本","msg2":"请输入脚本内容"}</t>
+  </si>
+  <si>
+    <t>{"xpath1":"//div[text()='请选择脚本']","xpath2":"//div[text()='请输入脚本内容']"}</t>
+  </si>
+  <si>
+    <t>版本号为空</t>
+  </si>
+  <si>
+    <t>{"type":"测试","choice":"本地选择","edition":"","describe":"测试"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入版本号"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入版本号']"}</t>
+  </si>
+  <si>
+    <t>脚本描述为空</t>
+  </si>
+  <si>
+    <t>{"type":"测试","choice":"本地选择","edition":"v-5.1.1","describe":""}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入脚本描述"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入脚本描述']"}</t>
+  </si>
+  <si>
+    <t>add-clusterinfo-006</t>
+  </si>
+  <si>
+    <t>脚本名字重复</t>
+  </si>
+  <si>
+    <t>{"msg":"公共脚本名已存在"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='公共脚本名已存在']"}</t>
+  </si>
+  <si>
+    <t>正确格式添加任务</t>
+  </si>
+  <si>
+    <t>{"name":"测试","parameter":"test.sh","duration":"5","remarks":"测试"}</t>
+  </si>
+  <si>
+    <t>{"msg":"新建任务成功"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='新建任务成功']"}</t>
+  </si>
+  <si>
+    <t>任务名称为空</t>
+  </si>
+  <si>
+    <t>{"name":"","parameter":"test.sh","duration":"6","remarks":"测试"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入任务名称"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入任务名称']"}</t>
+  </si>
+  <si>
+    <t>脚本为空</t>
+  </si>
+  <si>
+    <t>{"name":"测试","parameter":"","duration":"7","remarks":"测试"}</t>
+  </si>
+  <si>
+    <t>超长时长为空</t>
+  </si>
+  <si>
+    <t>{"name":"测试","parameter":"test.sh","duration":"","remarks":"测试"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入超时时长"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入超时时长']"}</t>
+  </si>
+  <si>
+    <t>{"name":"测试","parameter":"test.sh","duration":"9","remarks":""}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入备注"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入备注']"}</t>
+  </si>
+  <si>
+    <t>重名任务</t>
+  </si>
+  <si>
+    <t>{"name":"测试","parameter":"test.sh","duration":"12","remarks":"测试"}</t>
+  </si>
+  <si>
+    <t>add_text_001</t>
+  </si>
+  <si>
+    <t>{"type":"","host":"","choice":"","state":""}</t>
+  </si>
+  <si>
+    <t>add_text_002</t>
+  </si>
+  <si>
+    <t>选择主机不勾选，点击确定</t>
+  </si>
+  <si>
+    <t>{"type":"内部f060975","host":"","choice":"","state":""}</t>
+  </si>
+  <si>
+    <t>add_text_003</t>
+  </si>
+  <si>
+    <t>选择脚本不勾选，点击确定</t>
+  </si>
+  <si>
+    <t>{"type":"内部f060975","host":"KJ2020100610006","choice":"","state":"False"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -213,10 +451,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -228,59 +466,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,9 +509,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,11 +555,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,7 +581,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,7 +589,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,9 +602,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,187 +618,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,26 +812,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,26 +851,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +873,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +917,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -691,133 +929,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,22 +1391,22 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="34.8833333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.775" style="3" customWidth="1"/>
-    <col min="5" max="5" width="60.775" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="130.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="73.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.8833333333333" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:7">
+    <row r="1" customFormat="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1187,73 +1425,108 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:7">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:7">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3"/>
-      <c r="C3" s="1"/>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:7">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4" s="1"/>
-      <c r="D4"/>
-      <c r="E4"/>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:7">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5" s="1"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5" s="2"/>
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G5"/>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:7">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="1"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6" s="2"/>
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G6"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:7">
@@ -1276,11 +1549,12 @@
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1288,13 +1562,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
@@ -1318,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1326,106 +1600,127 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:6">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1436,7 +1731,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F4"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1464,7 +1759,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1472,62 +1767,62 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="4:6">
@@ -1542,6 +1837,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1551,8 +1847,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1579,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1587,67 +1883,669 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="34.25" customWidth="1"/>
+    <col min="5" max="5" width="39.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" customHeight="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="42.25" customWidth="1"/>
+    <col min="4" max="4" width="31.75" customWidth="1"/>
+    <col min="5" max="5" width="44.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" customHeight="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="75.75" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="55.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:6">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="141.75" customWidth="1"/>
+    <col min="4" max="4" width="30.625" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
